--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_299.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_299.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,672 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1049019607843137</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B', 'E', 'E'], ['E', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[['F#', 'B', 'B/7'], ['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[('0:00:14.033000', '0:00:23.861000'), ('0:00:15.216000', '0:00:28.278000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:04.940612', '0:00:06.577619'), ('0:02:33.617981', '0:02:41.988775')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1628151260504202</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>[['A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(1.64, 23.48)]</t>
+          <t>[['B', 'E', 'E/3', 'A', 'E/5']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.838594, 30.028253)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:31.142537', '0:00:41.637956')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:24.357755', '0:00:31.172811')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334816462736374</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Bb:7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_29</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2490842490842491</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>[['A#:maj', 'A:maj', 'A#:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(90.31, 92.61)]</t>
+          <t>[['E', 'Eb', 'E', 'Eb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(126.605, 130.738)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:47.980000', '0:00:51.660000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:04.820000', '0:00:06.840000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_49</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1417593198168738</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_197</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09646739130434782</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.2, 17.38)]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[('0:00:19.000294', '0:00:29.309954')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>isophonics_246</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.15625</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['A', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
+          <t>[['F:maj', 'Bb:maj', 'Bb:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(116.66, 121.42), (1.26, 5.92)]</t>
+          <t>[('0:00:55.641383', '0:01:01.040381')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:45.697000', '0:00:59.327000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3441176470588235</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[(3.389127, 22.035759)]</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(25.18, 48.16)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.8, 10.54)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:18.320000', '0:01:39.600000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>mid</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>schubert-winterreise_117</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(18.8, 21.34)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:03.040000', '0:01:05.240000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:06.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_166</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/F#', 'D:maj/A', 'A:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[['G', 'G', 'D:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:04:02.060000', '0:04:09.720000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.440395', '0:00:12.905056')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1559251559251559</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4318181818181818</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.13, 24.98)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.421269, 22.168299)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:14.737663')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_46</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03517369727047147</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
+          <t>isophonics_129</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3863636363636364</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Eb:7']]</t>
+          <t>[['C#:min', 'D#:hdim7', 'G#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(13.3, 22.37)]</t>
+          <t>[['F#:min', 'B:min(6)', 'C#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(6.41, 11.86)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.382952', '0:00:12.684467')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:16.680000', '0:01:21.618000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_151</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1777777777777778</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb', 'F']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(101.849092, 108.664149)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(22.564557, 28.578526)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:01:52.140000', '0:01:57.460000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B', 'F#', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(24.838594, 30.028253)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(42.9, 45.16)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.88, 16.76)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.702, 13.841)]</t>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F/2', 'C', 'F'], ['C', 'F/5', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(57.758, 64.527), (5.121, 12.601)]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(157.16, 160.38), (154.02, 159.24)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_66</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07533936651583711</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'D:min', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(22.703877, 28.810725)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(49.58, 52.97)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.900000', '0:01:41.900000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
